--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N2">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O2">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P2">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q2">
-        <v>5063.739099411643</v>
+        <v>7973.879986762888</v>
       </c>
       <c r="R2">
-        <v>5063.739099411643</v>
+        <v>71764.91988086599</v>
       </c>
       <c r="S2">
-        <v>0.009059395969377833</v>
+        <v>0.009785816090790002</v>
       </c>
       <c r="T2">
-        <v>0.009059395969377833</v>
+        <v>0.01043746500059263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N3">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O3">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P3">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q3">
-        <v>5.757638149216207</v>
+        <v>10.90933780492133</v>
       </c>
       <c r="R3">
-        <v>5.757638149216207</v>
+        <v>98.18404024429201</v>
       </c>
       <c r="S3">
-        <v>1.030083162227017E-05</v>
+        <v>1.338830953168162E-05</v>
       </c>
       <c r="T3">
-        <v>1.030083162227017E-05</v>
+        <v>1.427985268244975E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N4">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O4">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P4">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q4">
-        <v>1042.537738419009</v>
+        <v>1794.543187644685</v>
       </c>
       <c r="R4">
-        <v>1042.537738419009</v>
+        <v>16150.88868880217</v>
       </c>
       <c r="S4">
-        <v>0.001865175515550326</v>
+        <v>0.002202324292618318</v>
       </c>
       <c r="T4">
-        <v>0.001865175515550326</v>
+        <v>0.002348979636536672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N5">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O5">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P5">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q5">
-        <v>667.9443180507545</v>
+        <v>1021.574498003609</v>
       </c>
       <c r="R5">
-        <v>667.9443180507545</v>
+        <v>9194.170482032483</v>
       </c>
       <c r="S5">
-        <v>0.001195000758119809</v>
+        <v>0.001253710888187425</v>
       </c>
       <c r="T5">
-        <v>0.001195000758119809</v>
+        <v>0.001337196958834505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N6">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O6">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P6">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q6">
-        <v>1033.818240441473</v>
+        <v>1586.03228003213</v>
       </c>
       <c r="R6">
-        <v>1033.818240441473</v>
+        <v>9516.19368019278</v>
       </c>
       <c r="S6">
-        <v>0.001849575702194644</v>
+        <v>0.001946432631569063</v>
       </c>
       <c r="T6">
-        <v>0.001849575702194644</v>
+        <v>0.001384031900833418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N7">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O7">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P7">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q7">
-        <v>67206.28565011376</v>
+        <v>78332.60912980263</v>
       </c>
       <c r="R7">
-        <v>67206.28565011376</v>
+        <v>704993.4821682236</v>
       </c>
       <c r="S7">
-        <v>0.1202369121675795</v>
+        <v>0.09613243591933943</v>
       </c>
       <c r="T7">
-        <v>0.1202369121675795</v>
+        <v>0.1025340069771142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N8">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O8">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P8">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q8">
-        <v>76.41576047454271</v>
+        <v>107.169520428762</v>
       </c>
       <c r="R8">
-        <v>76.41576047454271</v>
+        <v>964.525683858858</v>
       </c>
       <c r="S8">
-        <v>0.0001367133295869154</v>
+        <v>0.0001315220719643385</v>
       </c>
       <c r="T8">
-        <v>0.0001367133295869154</v>
+        <v>0.0001402802801725641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N9">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O9">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P9">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q9">
-        <v>13836.63093095622</v>
+        <v>17628.96485997755</v>
       </c>
       <c r="R9">
-        <v>13836.63093095622</v>
+        <v>158660.6837397979</v>
       </c>
       <c r="S9">
-        <v>0.02475473479671139</v>
+        <v>0.02163486386516011</v>
       </c>
       <c r="T9">
-        <v>0.02475473479671139</v>
+        <v>0.02307555468957981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N10">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O10">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P10">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q10">
-        <v>8865.001880232185</v>
+        <v>10035.59070138167</v>
       </c>
       <c r="R10">
-        <v>8865.001880232185</v>
+        <v>90320.31631243505</v>
       </c>
       <c r="S10">
-        <v>0.01586013037512809</v>
+        <v>0.01231601743808432</v>
       </c>
       <c r="T10">
-        <v>0.01586013037512809</v>
+        <v>0.01313615540738371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N11">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O11">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P11">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q11">
-        <v>13720.90516778016</v>
+        <v>15580.62660401825</v>
       </c>
       <c r="R11">
-        <v>13720.90516778016</v>
+        <v>93483.75962410949</v>
       </c>
       <c r="S11">
-        <v>0.02454769302542578</v>
+        <v>0.01912107365288922</v>
       </c>
       <c r="T11">
-        <v>0.02454769302542578</v>
+        <v>0.01359624550295927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N12">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O12">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P12">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q12">
-        <v>74122.54357569673</v>
+        <v>90230.56386413658</v>
       </c>
       <c r="R12">
-        <v>74122.54357569673</v>
+        <v>812075.0747772292</v>
       </c>
       <c r="S12">
-        <v>0.1326105984780539</v>
+        <v>0.1107340096927119</v>
       </c>
       <c r="T12">
-        <v>0.1326105984780539</v>
+        <v>0.1181079165825258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N13">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O13">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P13">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q13">
-        <v>84.27977354875151</v>
+        <v>123.4475190442398</v>
       </c>
       <c r="R13">
-        <v>84.27977354875151</v>
+        <v>1111.027671398158</v>
       </c>
       <c r="S13">
-        <v>0.0001507826184955599</v>
+        <v>0.0001514989842130351</v>
       </c>
       <c r="T13">
-        <v>0.0001507826184955599</v>
+        <v>0.0001615874783133426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N14">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O14">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P14">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q14">
-        <v>15260.57078143106</v>
+        <v>20306.63164839779</v>
       </c>
       <c r="R14">
-        <v>15260.57078143106</v>
+        <v>182759.6848355801</v>
       </c>
       <c r="S14">
-        <v>0.02730226631221288</v>
+        <v>0.0249209874069485</v>
       </c>
       <c r="T14">
-        <v>0.02730226631221288</v>
+        <v>0.02658050503166936</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N15">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O15">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P15">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q15">
-        <v>9777.307015404613</v>
+        <v>11559.89846061235</v>
       </c>
       <c r="R15">
-        <v>9777.307015404613</v>
+        <v>104039.0861455112</v>
       </c>
       <c r="S15">
-        <v>0.01749231033190827</v>
+        <v>0.01418669964327904</v>
       </c>
       <c r="T15">
-        <v>0.01749231033190827</v>
+        <v>0.01513140852299535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N16">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O16">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P16">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q16">
-        <v>15132.93557825221</v>
+        <v>17947.17090946816</v>
       </c>
       <c r="R16">
-        <v>15132.93557825221</v>
+        <v>107683.025456809</v>
       </c>
       <c r="S16">
-        <v>0.02707391769026993</v>
+        <v>0.02202537712651609</v>
       </c>
       <c r="T16">
-        <v>0.02707391769026993</v>
+        <v>0.0156613817897264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N17">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O17">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P17">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q17">
-        <v>190275.0062887087</v>
+        <v>315532.4370548879</v>
       </c>
       <c r="R17">
-        <v>190275.0062887087</v>
+        <v>2839791.933493991</v>
       </c>
       <c r="S17">
-        <v>0.3404157661372316</v>
+        <v>0.3872321134533929</v>
       </c>
       <c r="T17">
-        <v>0.3404157661372316</v>
+        <v>0.4130183516405136</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N18">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O18">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P18">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q18">
-        <v>216.3489495692054</v>
+        <v>431.6907139254902</v>
       </c>
       <c r="R18">
-        <v>216.3489495692054</v>
+        <v>3885.216425329412</v>
       </c>
       <c r="S18">
-        <v>0.0003870639389644144</v>
+        <v>0.0005297854923311507</v>
       </c>
       <c r="T18">
-        <v>0.0003870639389644144</v>
+        <v>0.0005650645263231915</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N19">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O19">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P19">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q19">
-        <v>39174.38691834295</v>
+        <v>71011.42559679362</v>
       </c>
       <c r="R19">
-        <v>39174.38691834295</v>
+        <v>639102.8303711426</v>
       </c>
       <c r="S19">
-        <v>0.07008581524117609</v>
+        <v>0.08714763106400185</v>
       </c>
       <c r="T19">
-        <v>0.07008581524117609</v>
+        <v>0.09295089348461755</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N20">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O20">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P20">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q20">
-        <v>25098.66855746607</v>
+        <v>40424.47234261185</v>
       </c>
       <c r="R20">
-        <v>25098.66855746607</v>
+        <v>363820.2510835067</v>
       </c>
       <c r="S20">
-        <v>0.04490333571741038</v>
+        <v>0.04961028414883637</v>
       </c>
       <c r="T20">
-        <v>0.04490333571741038</v>
+        <v>0.05291389084659701</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N21">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O21">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P21">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q21">
-        <v>38846.74315551503</v>
+        <v>62760.49193078226</v>
       </c>
       <c r="R21">
-        <v>38846.74315551503</v>
+        <v>376562.9515846936</v>
       </c>
       <c r="S21">
-        <v>0.06949963682122157</v>
+        <v>0.07702180529700615</v>
       </c>
       <c r="T21">
-        <v>0.06949963682122157</v>
+        <v>0.05476718477787935</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>479.764676027396</v>
+        <v>503.7454223333334</v>
       </c>
       <c r="N22">
-        <v>479.764676027396</v>
+        <v>1511.236267</v>
       </c>
       <c r="O22">
-        <v>0.6480510150279009</v>
+        <v>0.6437328705599147</v>
       </c>
       <c r="P22">
-        <v>0.6480510150279009</v>
+        <v>0.6724324423344896</v>
       </c>
       <c r="Q22">
-        <v>25559.805037248</v>
+        <v>32470.17081192354</v>
       </c>
       <c r="R22">
-        <v>25559.805037248</v>
+        <v>194821.0248715412</v>
       </c>
       <c r="S22">
-        <v>0.04572834227565799</v>
+        <v>0.03984849540368055</v>
       </c>
       <c r="T22">
-        <v>0.04572834227565799</v>
+        <v>0.0283347021337434</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.545508239487031</v>
+        <v>0.6891913333333334</v>
       </c>
       <c r="N23">
-        <v>0.545508239487031</v>
+        <v>2.067574</v>
       </c>
       <c r="O23">
-        <v>0.0007368553500705558</v>
+        <v>0.0008807129468624942</v>
       </c>
       <c r="P23">
-        <v>0.0007368553500705558</v>
+        <v>0.0009199778121307421</v>
       </c>
       <c r="Q23">
-        <v>29.06234023512125</v>
+        <v>44.423550712929</v>
       </c>
       <c r="R23">
-        <v>29.06234023512125</v>
+        <v>266.541304277574</v>
       </c>
       <c r="S23">
-        <v>5.199463140139588E-05</v>
+        <v>5.451808882228831E-05</v>
       </c>
       <c r="T23">
-        <v>5.199463140139588E-05</v>
+        <v>3.876567463919417E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>98.7753852438893</v>
+        <v>113.3692653333333</v>
       </c>
       <c r="N24">
-        <v>98.7753852438893</v>
+        <v>340.107796</v>
       </c>
       <c r="O24">
-        <v>0.1334226796293339</v>
+        <v>0.1448738179460895</v>
       </c>
       <c r="P24">
-        <v>0.1334226796293339</v>
+        <v>0.1513327339445595</v>
       </c>
       <c r="Q24">
-        <v>5262.329044768412</v>
+        <v>7307.499476907965</v>
       </c>
       <c r="R24">
-        <v>5262.329044768412</v>
+        <v>43844.99686144779</v>
       </c>
       <c r="S24">
-        <v>0.009414687763683175</v>
+        <v>0.008968011317360691</v>
       </c>
       <c r="T24">
-        <v>0.009414687763683175</v>
+        <v>0.006376801102156162</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.2844787345371</v>
+        <v>64.53739933333333</v>
       </c>
       <c r="N25">
-        <v>63.2844787345371</v>
+        <v>193.612198</v>
       </c>
       <c r="O25">
-        <v>0.08548268084056795</v>
+        <v>0.08247190642226332</v>
       </c>
       <c r="P25">
-        <v>0.08548268084056795</v>
+        <v>0.08614875516806848</v>
       </c>
       <c r="Q25">
-        <v>3371.525706586762</v>
+        <v>4159.919449797032</v>
       </c>
       <c r="R25">
-        <v>3371.525706586762</v>
+        <v>24959.51669878219</v>
       </c>
       <c r="S25">
-        <v>0.006031903658001412</v>
+        <v>0.00510519430387617</v>
       </c>
       <c r="T25">
-        <v>0.006031903658001412</v>
+        <v>0.003630103432257922</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.9492551767221</v>
+        <v>100.196705</v>
       </c>
       <c r="N26">
-        <v>97.9492551767221</v>
+        <v>200.39341</v>
       </c>
       <c r="O26">
-        <v>0.1323067691521269</v>
+        <v>0.12804069212487</v>
       </c>
       <c r="P26">
-        <v>0.1323067691521269</v>
+        <v>0.08916609074075162</v>
       </c>
       <c r="Q26">
-        <v>5218.316376668195</v>
+        <v>6458.429162635853</v>
       </c>
       <c r="R26">
-        <v>5218.316376668195</v>
+        <v>25833.71665054341</v>
       </c>
       <c r="S26">
-        <v>0.009335945913014959</v>
+        <v>0.007926003416889484</v>
       </c>
       <c r="T26">
-        <v>0.009335945913014959</v>
+        <v>0.003757246769353184</v>
       </c>
     </row>
   </sheetData>
